--- a/similarities/split_global/harmonic_similarity_timestamps_299.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_299.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:27.060000', '0:01:32.420000'), ('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=87.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.159256', '0:00:06.708825')]</t>
+          <t>('0:00:21.780000', '0:00:25.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:43.934000', '0:00:50.158000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=1.159256']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:9', 'C:maj/G']]</t>
+          <t>['A', 'E', 'B', 'E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'B:9', 'E']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.420000', '0:01:02.680000')]</t>
+          <t>('0:00:02.512756', '0:00:22.098788')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:33.711833', '0:00:45.368251')]</t>
+          <t>('0:01:49.306000', '0:02:07.327000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=58.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=2.512756</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=109.306</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A:min', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:min/D#', 'D#/G', 'C:min/G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:27', '0:00:56.920000')]</t>
+          <t>('0:01:12.754489', '0:01:20.463514')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:33.270000')]</t>
+          <t>('0:01:04.280000', '0:01:07.880000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=72.754489</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=64.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:13.660000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:01.360000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:40.720000')]</t>
+          <t>('0:00:22.770000', '0:00:31.750000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:19.780000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min', 'A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.422063', '0:00:13.206916')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:24.844000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=9.422063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A', 'A:min/b3', 'E']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:27.840748')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:29.470000', '0:00:34.950000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:08.460000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.600000', '0:00:10.460000')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:02:37.160000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:09.910000', '0:00:14')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:00:51.960000', '0:00:58.620000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:09.236303', '0:00:12.162018')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:58.620000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232'), ('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:00:36.180000', '0:00:37.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.480000', '0:00:22.820000'), ('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:25.940000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
